--- a/public/templates/Item_sample_template.xlsx
+++ b/public/templates/Item_sample_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>S.No</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Inventory UOM</t>
+  </si>
+  <si>
+    <t>Currency</t>
   </si>
   <si>
     <t>Cost Price</t>
@@ -318,22 +321,84 @@
     <t>Specification 10 Value</t>
   </si>
   <si>
+    <t>G - for Goods
+S - for Service</t>
+  </si>
+  <si>
+    <t>Category of the Item</t>
+  </si>
+  <si>
+    <t>Sub Category of the item</t>
+  </si>
+  <si>
+    <t>FG - for Finished Goods 
+SF - for Semi Finished
+RM - for Raw Material
+TI - for Traded Item
+A  - for Asset
+E  - for Expense
+Leave blank in case of service</t>
+  </si>
+  <si>
+    <t>Name of the Item</t>
+  </si>
+  <si>
+    <t>HSN/SAC Code</t>
+  </si>
+  <si>
+    <t>UOM of the item</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>P - for Purchase
+S - for Sale</t>
+  </si>
+  <si>
+    <t>Name of the Attribute</t>
+  </si>
+  <si>
+    <t>Comma saperated values or leave blank for All</t>
+  </si>
+  <si>
+    <t>Y/N</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>FABRIC</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>ZURIC / 210 / BLUISH / 61 / LIBERTY 13 BLUISH</t>
-  </si>
-  <si>
-    <t>1000101246</t>
-  </si>
-  <si>
-    <t>MTR</t>
+    <t>Shoe</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>PUMA Sports Shoes</t>
+  </si>
+  <si>
+    <t>NOS</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>9,10,12</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>Red,White,Black</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -513,7 +578,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,6 +587,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -719,12 +790,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -864,7 +950,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,150 +962,145 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1574,378 +1655,434 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CO2"/>
+  <dimension ref="A1:CP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71428571428571" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.71428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="9.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="13.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="12.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="11.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="12.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="12.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="11.1428571428571" customWidth="1"/>
-    <col min="9" max="9" width="12.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="23.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="24.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="26.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="17.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="15.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" customWidth="1"/>
+    <col min="9" max="10" width="12.5714285714286" customWidth="1"/>
+    <col min="44" max="44" width="21" customWidth="1"/>
+    <col min="45" max="45" width="17" customWidth="1"/>
+    <col min="48" max="48" width="16.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="44.25" customHeight="1" spans="1:93">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="99" customHeight="1" spans="1:94">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AM1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AN1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AO1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AR1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AT1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AU1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AV1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AW1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AX1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AY1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BA1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BB1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BC1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BD1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BE1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BF1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BG1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BH1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BI1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BK1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BL1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BM1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BN1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BO1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BP1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="BR1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="8" t="s">
+      <c r="BS1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="BT1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="BU1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="BV1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="BW1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="BX1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="8" t="s">
+      <c r="BY1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="8" t="s">
+      <c r="BZ1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="8" t="s">
+      <c r="CA1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="8" t="s">
+      <c r="CB1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="8" t="s">
+      <c r="CC1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="8" t="s">
+      <c r="CD1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="8" t="s">
+      <c r="CE1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CF1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="8" t="s">
+      <c r="CG1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="8" t="s">
+      <c r="CH1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="8" t="s">
+      <c r="CI1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="8" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="8" t="s">
+      <c r="CK1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="8" t="s">
+      <c r="CL1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="8" t="s">
+      <c r="CM1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="8" t="s">
+      <c r="CN1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="8" t="s">
+      <c r="CO1" s="7" t="s">
         <v>92</v>
       </c>
+      <c r="CP1" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:53">
-      <c r="A2" s="2">
+    <row r="2" s="2" customFormat="1" ht="183" customHeight="1" spans="2:54">
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="8"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="22" customHeight="1" spans="1:49">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="6">
-        <v>60062100</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="11"/>
+      <c r="B3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="3">
+        <v>94042910</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2">
